--- a/Data/layers/layers_tonkean_2021.xlsx
+++ b/Data/layers/layers_tonkean_2021.xlsx
@@ -2461,7 +2461,7 @@
         <v>0.001080171328337606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09477304677279096</v>
+        <v>0.09477304677279097</v>
       </c>
       <c r="E2" t="n">
         <v>1.5699353892002</v>
@@ -2485,25 +2485,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8467639375111438</v>
+        <v>0.8467639375111439</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7331572021815282</v>
+        <v>0.7331572021815284</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2264101500509397</v>
+        <v>0.2264101500509398</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8433208574931046</v>
+        <v>0.8433208574931048</v>
       </c>
       <c r="Q2" t="n">
         <v>1.380595841679985</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57241647852809</v>
+        <v>1.572416478528091</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07760903639364912</v>
+        <v>0.07760903639364913</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2711969193369128</v>
+        <v>0.2711969193369129</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6601084852700965</v>
+        <v>0.6601084852700966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03630855985663475</v>
+        <v>0.03630855985663476</v>
       </c>
       <c r="H3" t="n">
         <v>0.3105436798133719</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007830338467524978</v>
+        <v>0.007830338467524981</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09477304677279096</v>
+        <v>0.09477304677279097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2711969193369128</v>
+        <v>0.2711969193369129</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2624904288240581</v>
+        <v>0.2624904288240582</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03584676604038158</v>
+        <v>0.03584676604038159</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04673822058816018</v>
+        <v>0.04673822058816019</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006351160977949191</v>
+        <v>0.006351160977949193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01552047134709602</v>
+        <v>0.01552047134709603</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03316217625478347</v>
+        <v>0.03316217625478348</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2698,10 +2698,10 @@
         <v>1.06530714764937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4180445372011181</v>
+        <v>0.4180445372011182</v>
       </c>
       <c r="H5" t="n">
-        <v>1.874752279551384</v>
+        <v>1.874752279551385</v>
       </c>
       <c r="I5" t="n">
         <v>0.01062648159708809</v>
@@ -2710,13 +2710,13 @@
         <v>0.0201865463584015</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08841739611823429</v>
+        <v>0.08841739611823431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2942065099014633</v>
+        <v>0.2942065099014634</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8781410074840872</v>
+        <v>0.8781410074840873</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0.3269061146345338</v>
       </c>
       <c r="P5" t="n">
-        <v>2.477437504114204</v>
+        <v>2.477437504114205</v>
       </c>
       <c r="Q5" t="n">
         <v>1.852973385105158</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5146651982697779</v>
+        <v>0.514665198269778</v>
       </c>
       <c r="X5" t="n">
         <v>0.2871716147973865</v>
@@ -2762,7 +2762,7 @@
         <v>1.28328764326544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6601084852700965</v>
+        <v>0.6601084852700966</v>
       </c>
       <c r="D6" t="n">
         <v>0.4026819516117873</v>
@@ -2792,25 +2792,25 @@
         <v>0.01449024117191107</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3371017572490405</v>
+        <v>0.3371017572490406</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08183440271268005</v>
+        <v>0.08183440271268007</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6595829306261954</v>
+        <v>0.6595829306261956</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6105431267353403</v>
+        <v>0.6105431267353404</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8996162118047554</v>
+        <v>0.8996162118047555</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7156578093476291</v>
+        <v>0.715657809347629</v>
       </c>
       <c r="T6" t="n">
         <v>0.0109854972233704</v>
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00806099935321733</v>
+        <v>0.008060999353217331</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004936907165134224</v>
+        <v>0.004936907165134225</v>
       </c>
       <c r="X6" t="n">
         <v>0.188595059002059</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03630855985663475</v>
+        <v>0.03630855985663476</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4180445372011181</v>
+        <v>0.4180445372011182</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2853,52 +2853,52 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02644764734858124</v>
+        <v>0.02644764734858125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07682210935209262</v>
+        <v>0.07682210935209263</v>
       </c>
       <c r="J7" t="n">
         <v>0.1617660762270029</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02503294573481409</v>
+        <v>0.0250329457348141</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04499358256285013</v>
+        <v>0.04499358256285015</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04776997338978674</v>
+        <v>0.04776997338978676</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009942539224988049</v>
+        <v>0.009942539224988053</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4082661883972104</v>
+        <v>0.4082661883972105</v>
       </c>
       <c r="P7" t="n">
         <v>0.1316145030374674</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2315689095552575</v>
+        <v>0.2315689095552576</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04634302745001288</v>
+        <v>0.0463430274500129</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04309812814690231</v>
+        <v>0.04309812814690232</v>
       </c>
       <c r="U7" t="n">
-        <v>1.937281532165881</v>
+        <v>1.937281532165882</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02198914145926114</v>
+        <v>0.02198914145926115</v>
       </c>
       <c r="X7" t="n">
         <v>0.01834529706958751</v>
@@ -2917,31 +2917,31 @@
         <v>0.3105436798133719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2624904288240581</v>
+        <v>0.2624904288240582</v>
       </c>
       <c r="E8" t="n">
-        <v>1.874752279551384</v>
+        <v>1.874752279551385</v>
       </c>
       <c r="F8" t="n">
         <v>2.86329819635969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02644764734858124</v>
+        <v>0.02644764734858125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05502806502345475</v>
+        <v>0.05502806502345476</v>
       </c>
       <c r="J8" t="n">
         <v>0.2265463723593902</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08492220075566775</v>
+        <v>0.08492220075566777</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8577352072672616</v>
+        <v>0.8577352072672617</v>
       </c>
       <c r="M8" t="n">
         <v>0.9477830775209763</v>
@@ -2953,16 +2953,16 @@
         <v>0.1228762352973946</v>
       </c>
       <c r="P8" t="n">
-        <v>0.683211785192727</v>
+        <v>0.6832117851927271</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.388605105773837</v>
+        <v>1.388605105773838</v>
       </c>
       <c r="R8" t="n">
-        <v>1.750577752571284</v>
+        <v>1.750577752571285</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01029473275219715</v>
+        <v>0.01029473275219716</v>
       </c>
       <c r="T8" t="n">
         <v>1.132076190570269</v>
@@ -2971,10 +2971,10 @@
         <v>0.04176762859815532</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0541654837733813</v>
+        <v>0.05416548377338132</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6508815938378741</v>
+        <v>0.6508815938378743</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -3002,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07682210935209262</v>
+        <v>0.07682210935209263</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05502806502345475</v>
+        <v>0.05502806502345476</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02977924694652739</v>
+        <v>0.0297792469465274</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1570816077862002</v>
+        <v>0.1570816077862003</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0192228577413029</v>
+        <v>0.01922285774130291</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09434237929902148</v>
+        <v>0.09434237929902149</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3530460443806898</v>
+        <v>0.3530460443806899</v>
       </c>
       <c r="L10" t="n">
-        <v>2.684441701593807</v>
+        <v>2.684441701593808</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>0.003386750448569187</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3351180329292353</v>
+        <v>0.3351180329292354</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03433237946775321</v>
+        <v>0.03433237946775323</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001104924055681394</v>
+        <v>0.001104924055681395</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00381479259001186</v>
+        <v>0.003814792590011861</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0.002281334456917721</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0420597995460169</v>
+        <v>0.04205979954601691</v>
       </c>
     </row>
     <row r="11">
@@ -3145,25 +3145,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03584676604038158</v>
+        <v>0.03584676604038159</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08841739611823429</v>
+        <v>0.08841739611823431</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02503294573481409</v>
+        <v>0.0250329457348141</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08492220075566775</v>
+        <v>0.08492220075566777</v>
       </c>
       <c r="I11" t="n">
         <v>0.1062142170290001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3530460443806898</v>
+        <v>0.3530460443806899</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004896555935878803</v>
+        <v>0.004896555935878804</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07443066472172008</v>
+        <v>0.07443066472172009</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0.7868900186312746</v>
       </c>
       <c r="T11" t="n">
-        <v>0.07282688519123488</v>
+        <v>0.0728268851912349</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00859592393072387</v>
+        <v>0.008595923930723873</v>
       </c>
       <c r="V11" t="n">
         <v>0.2919426777112848</v>
@@ -3215,31 +3215,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8467639375111438</v>
+        <v>0.8467639375111439</v>
       </c>
       <c r="C12" t="n">
         <v>0.002945508212104782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04673822058816018</v>
+        <v>0.04673822058816019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2942065099014633</v>
+        <v>0.2942065099014634</v>
       </c>
       <c r="F12" t="n">
         <v>0.01449024117191107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04499358256285013</v>
+        <v>0.04499358256285015</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8577352072672616</v>
+        <v>0.8577352072672617</v>
       </c>
       <c r="I12" t="n">
         <v>0.1161236170060737</v>
       </c>
       <c r="J12" t="n">
-        <v>2.684441701593807</v>
+        <v>2.684441701593808</v>
       </c>
       <c r="K12" t="n">
         <v>0.1029066104278634</v>
@@ -3248,19 +3248,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001753060933768079</v>
+        <v>0.00175306093376808</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003136069365758981</v>
+        <v>0.003136069365758982</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07434556726819781</v>
+        <v>0.07434556726819783</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7835830789893143</v>
+        <v>0.7835830789893145</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9048635186067472</v>
+        <v>0.9048635186067474</v>
       </c>
       <c r="R12" t="n">
         <v>12.88957371229267</v>
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7331572021815282</v>
+        <v>0.7331572021815284</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006351160977949191</v>
+        <v>0.006351160977949193</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8781410074840872</v>
+        <v>0.8781410074840873</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3371017572490405</v>
+        <v>0.3371017572490406</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04776997338978674</v>
+        <v>0.04776997338978676</v>
       </c>
       <c r="H13" t="n">
         <v>0.9477830775209763</v>
@@ -3321,37 +3321,37 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001753060933768079</v>
+        <v>0.00175306093376808</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.239960372428376</v>
+        <v>0.2399603724283761</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6598510228191267</v>
+        <v>0.6598510228191268</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6172002345787947</v>
+        <v>0.6172002345787948</v>
       </c>
       <c r="R13" t="n">
         <v>1.147409919839331</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06252726621648952</v>
+        <v>0.06252726621648955</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1895937608727297</v>
+        <v>0.1895937608727298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3930586881064172</v>
+        <v>0.3930586881064173</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4514187025600639</v>
+        <v>0.451418702560064</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2264101500509397</v>
+        <v>0.2264101500509398</v>
       </c>
       <c r="C14" t="n">
         <v>0.03160255897283679</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009942539224988049</v>
+        <v>0.009942539224988053</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -3397,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003136069365758981</v>
+        <v>0.003136069365758982</v>
       </c>
       <c r="M14" t="n">
-        <v>0.239960372428376</v>
+        <v>0.2399603724283761</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03067313399860345</v>
+        <v>0.03067313399860346</v>
       </c>
       <c r="P14" t="n">
-        <v>0.009427849223418876</v>
+        <v>0.009427849223418877</v>
       </c>
       <c r="Q14" t="n">
         <v>0.1143436361973141</v>
@@ -3424,7 +3424,7 @@
         <v>0.1253389326735146</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06953463223345553</v>
+        <v>0.06953463223345555</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>0.3269061146345338</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08183440271268005</v>
+        <v>0.08183440271268007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4082661883972104</v>
+        <v>0.4082661883972105</v>
       </c>
       <c r="H15" t="n">
         <v>0.1228762352973946</v>
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3351180329292353</v>
+        <v>0.3351180329292354</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004896555935878803</v>
+        <v>0.004896555935878804</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07434556726819781</v>
+        <v>0.07434556726819783</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03067313399860345</v>
+        <v>0.03067313399860346</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3491,16 +3491,16 @@
         <v>1.006537456458273</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5596839924871199</v>
+        <v>0.55968399248712</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09646883596253554</v>
+        <v>0.09646883596253557</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6289651521741791</v>
+        <v>0.6289651521741793</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>1.638498601100031</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1854158117853949</v>
+        <v>0.185415811785395</v>
       </c>
     </row>
     <row r="16">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8433208574931046</v>
+        <v>0.8433208574931048</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3528,34 +3528,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.477437504114204</v>
+        <v>2.477437504114205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6595829306261954</v>
+        <v>0.6595829306261956</v>
       </c>
       <c r="G16" t="n">
         <v>0.1316145030374674</v>
       </c>
       <c r="H16" t="n">
-        <v>0.683211785192727</v>
+        <v>0.6832117851927271</v>
       </c>
       <c r="I16" t="n">
         <v>0.01230518051872686</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03433237946775321</v>
+        <v>0.03433237946775323</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07443066472172008</v>
+        <v>0.07443066472172009</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7835830789893143</v>
+        <v>0.7835830789893145</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6598510228191267</v>
+        <v>0.6598510228191268</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009427849223418876</v>
+        <v>0.009427849223418877</v>
       </c>
       <c r="O16" t="n">
         <v>0.2612900348278458</v>
@@ -3567,22 +3567,22 @@
         <v>1.439835472072975</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8509471636465142</v>
+        <v>0.8509471636465143</v>
       </c>
       <c r="S16" t="n">
         <v>0.02763944962987008</v>
       </c>
       <c r="T16" t="n">
-        <v>0.727940242253648</v>
+        <v>0.7279402422536482</v>
       </c>
       <c r="U16" t="n">
-        <v>2.688538602320499</v>
+        <v>2.6885386023205</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5945361333775578</v>
+        <v>0.594536133377558</v>
       </c>
       <c r="X16" t="n">
         <v>0.4463440862991785</v>
@@ -3607,13 +3607,13 @@
         <v>1.852973385105158</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6105431267353403</v>
+        <v>0.6105431267353404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2315689095552575</v>
+        <v>0.2315689095552576</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388605105773837</v>
+        <v>1.388605105773838</v>
       </c>
       <c r="I17" t="n">
         <v>0.2904946371605371</v>
@@ -3625,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9048635186067472</v>
+        <v>0.9048635186067474</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6172002345787947</v>
+        <v>0.6172002345787948</v>
       </c>
       <c r="N17" t="n">
         <v>0.1143436361973141</v>
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.660213636725676</v>
+        <v>1.660213636725677</v>
       </c>
       <c r="V17" t="n">
         <v>0.1175107233631246</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8727195658037153</v>
+        <v>0.8727195658037155</v>
       </c>
       <c r="X17" t="n">
-        <v>0.3312961601695844</v>
+        <v>0.3312961601695845</v>
       </c>
     </row>
     <row r="18">
@@ -3671,31 +3671,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.57241647852809</v>
+        <v>1.572416478528091</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01552047134709602</v>
+        <v>0.01552047134709603</v>
       </c>
       <c r="E18" t="n">
         <v>2.043564462075127</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8996162118047554</v>
+        <v>0.8996162118047555</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04634302745001288</v>
+        <v>0.0463430274500129</v>
       </c>
       <c r="H18" t="n">
-        <v>1.750577752571284</v>
+        <v>1.750577752571285</v>
       </c>
       <c r="I18" t="n">
         <v>0.616259687563528</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001104924055681394</v>
+        <v>0.001104924055681395</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>0.1678102621277192</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5596839924871199</v>
+        <v>0.55968399248712</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8509471636465142</v>
+        <v>0.8509471636465143</v>
       </c>
       <c r="Q18" t="n">
         <v>1.705284782741086</v>
@@ -3722,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06772895440220171</v>
+        <v>0.06772895440220174</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4780018405518173</v>
+        <v>0.4780018405518174</v>
       </c>
       <c r="U18" t="n">
-        <v>0.054085911935363</v>
+        <v>0.05408591193536301</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6026017990812239</v>
+        <v>0.602601799081224</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2902081443096857</v>
+        <v>0.2902081443096858</v>
       </c>
     </row>
     <row r="19">
@@ -3753,19 +3753,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03316217625478347</v>
+        <v>0.03316217625478348</v>
       </c>
       <c r="E19" t="n">
         <v>0.01236983899566592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7156578093476291</v>
+        <v>0.715657809347629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01029473275219715</v>
+        <v>0.01029473275219716</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06252726621648952</v>
+        <v>0.06252726621648955</v>
       </c>
       <c r="N19" t="n">
         <v>0.01679540276371843</v>
@@ -3795,7 +3795,7 @@
         <v>0.1644627281380476</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06772895440220171</v>
+        <v>0.06772895440220174</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0.01056246161332007</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005293494345590024</v>
+        <v>0.005293494345590025</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3838,40 +3838,40 @@
         <v>0.0109854972233704</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04309812814690231</v>
+        <v>0.04309812814690232</v>
       </c>
       <c r="H20" t="n">
         <v>1.132076190570269</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02977924694652739</v>
+        <v>0.0297792469465274</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00381479259001186</v>
+        <v>0.003814792590011861</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07282688519123488</v>
+        <v>0.0728268851912349</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1895937608727297</v>
+        <v>0.1895937608727298</v>
       </c>
       <c r="N20" t="n">
         <v>0.1253389326735146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09646883596253554</v>
+        <v>0.09646883596253557</v>
       </c>
       <c r="P20" t="n">
-        <v>0.727940242253648</v>
+        <v>0.7279402422536482</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4780018405518173</v>
+        <v>0.4780018405518174</v>
       </c>
       <c r="S20" t="n">
         <v>0.01056246161332007</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9726495931984714</v>
+        <v>0.9726495931984717</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3914,43 +3914,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.937281532165881</v>
+        <v>1.937281532165882</v>
       </c>
       <c r="H21" t="n">
         <v>0.04176762859815532</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1570816077862002</v>
+        <v>0.1570816077862003</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00859592393072387</v>
+        <v>0.008595923930723873</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3930586881064172</v>
+        <v>0.3930586881064173</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06953463223345553</v>
+        <v>0.06953463223345555</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6289651521741791</v>
+        <v>0.6289651521741793</v>
       </c>
       <c r="P21" t="n">
-        <v>2.688538602320499</v>
+        <v>2.6885386023205</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.660213636725676</v>
+        <v>1.660213636725677</v>
       </c>
       <c r="R21" t="n">
-        <v>0.054085911935363</v>
+        <v>0.05408591193536301</v>
       </c>
       <c r="S21" t="n">
-        <v>0.005293494345590024</v>
+        <v>0.005293494345590025</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0.04361431004672599</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3556307271568499</v>
+        <v>0.35563072715685</v>
       </c>
     </row>
     <row r="22">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07760903639364912</v>
+        <v>0.07760903639364913</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00806099935321733</v>
+        <v>0.008060999353217331</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0541654837733813</v>
+        <v>0.05416548377338132</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0192228577413029</v>
+        <v>0.01922285774130291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4514187025600639</v>
+        <v>0.451418702560064</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -4054,25 +4054,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007830338467524978</v>
+        <v>0.007830338467524981</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5146651982697779</v>
+        <v>0.514665198269778</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004936907165134224</v>
+        <v>0.004936907165134225</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02198914145926114</v>
+        <v>0.02198914145926115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6508815938378741</v>
+        <v>0.6508815938378743</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09434237929902148</v>
+        <v>0.09434237929902149</v>
       </c>
       <c r="J23" t="n">
         <v>0.002281334456917721</v>
@@ -4093,19 +4093,19 @@
         <v>1.638498601100031</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5945361333775578</v>
+        <v>0.594536133377558</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8727195658037153</v>
+        <v>0.8727195658037155</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6026017990812239</v>
+        <v>0.602601799081224</v>
       </c>
       <c r="S23" t="n">
         <v>0.04560983101283062</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9726495931984714</v>
+        <v>0.9726495931984717</v>
       </c>
       <c r="U23" t="n">
         <v>0.04361431004672599</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.004864715669270222</v>
+        <v>0.004864715669270223</v>
       </c>
     </row>
     <row r="24">
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0420597995460169</v>
+        <v>0.04205979954601691</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -4166,16 +4166,16 @@
         <v>0.04852474382841485</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1854158117853949</v>
+        <v>0.185415811785395</v>
       </c>
       <c r="P24" t="n">
         <v>0.4463440862991785</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3312961601695844</v>
+        <v>0.3312961601695845</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2902081443096857</v>
+        <v>0.2902081443096858</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -4184,13 +4184,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3556307271568499</v>
+        <v>0.35563072715685</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004864715669270222</v>
+        <v>0.004864715669270223</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
